--- a/data/trans_media/Q02G_LAB-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q02G_LAB-Estudios-trans_media.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,8</t>
+          <t>2,67; 6,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 11,36</t>
+          <t>3,48; 13,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,51; 4,95</t>
+          <t>3,56; 5,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 4,14</t>
+          <t>2,89; 4,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 4,94</t>
+          <t>3,52; 4,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,26; 5,53</t>
+          <t>3,32; 5,61</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,97</t>
+          <t>2,93; 4,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,68</t>
+          <t>2,49; 4,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,85</t>
+          <t>3,25; 4,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 4,9</t>
+          <t>3,46; 4,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 4,6</t>
+          <t>3,3; 4,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,46</t>
+          <t>3,3; 4,55</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 8,36</t>
+          <t>1,8; 7,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,22 +809,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,14</t>
+          <t>1,62; 4,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 8,91</t>
+          <t>3,13; 8,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,79</t>
+          <t>2,09; 5,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 6,96</t>
+          <t>2,67; 7,16</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 4,71</t>
+          <t>3,07; 4,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 4,93</t>
+          <t>2,77; 4,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,55; 4,65</t>
+          <t>3,5; 4,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 4,82</t>
+          <t>3,55; 4,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 4,43</t>
+          <t>3,56; 4,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 4,58</t>
+          <t>3,41; 4,56</t>
         </is>
       </c>
     </row>
